--- a/fsdata/00126380_annual.xlsx
+++ b/fsdata/00126380_annual.xlsx
@@ -3368,12 +3368,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>238309000000</v>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
-        <v>356388000000</v>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
         <v>28316000000</v>
@@ -4765,7 +4763,7 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>-28810000000</v>
+        <v>356388000000</v>
       </c>
       <c r="Q53" t="n">
         <v>23797000000</v>
@@ -7637,13 +7635,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>매각예정분류부채</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>상각후원가금융자산</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>상각후원가금융자산</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>매각예정분류부채</t>
+          <t>상각후원가금융자산</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -8981,13 +8983,13 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>매각예정분류기타자본항목</t>
+          <t>매각예정분류부채</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>매각예정분류기타자본항목</t>
+          <t>매각예정분류부채</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
